--- a/pred_ohlcv/54_21/2019-10-22 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 MITH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-194072.865</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-196044.1041</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-196044.1041</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-151155.853</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-60860.79699999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-62548.98779999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-62548.98779999999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-61313.51079999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-61313.51079999999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-61418.17869999999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-58866.17969999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-59066.17969999999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-59054.17969999999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-59054.17969999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-59042.17969999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-90297.1942</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-50297.1942</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>560129.6987701755</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>562276.7575701755</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>640332.4521701755</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>640394.2168701756</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>637985.3596701756</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-22 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 MITH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-194072.865</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-196044.1041</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-196044.1041</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-151155.853</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-60860.79699999999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-60848.79699999999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-62548.98779999999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-62548.98779999999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-61313.51079999999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-61313.51079999999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-61418.17869999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-58866.17969999999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-59066.17969999999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-59054.17969999999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-59042.17969999999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-90297.1942</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-50297.1942</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>71538.55933333331</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>98301.29067017541</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>562276.7575701755</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>550576.7575701755</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>640332.4521701755</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>637985.3596701756</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>637965.4096701756</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
